--- a/config_5.18/act_ty_ldfd_config.xlsx
+++ b/config_5.18/act_ty_ldfd_config.xlsx
@@ -4,25 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
+    <sheet name="gifts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>line</t>
   </si>
   <si>
     <t>condiy_key|平台权限</t>
-  </si>
-  <si>
-    <t>task_id|任务id</t>
   </si>
   <si>
     <t>beginTime</t>
@@ -31,7 +29,19 @@
     <t>endTime</t>
   </si>
   <si>
-    <t>gift_ids|礼包物品id</t>
+    <t>by_gift_id|礼包gifts的哪个</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>gitf_key| vip等玩家权限区别</t>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+  </si>
+  <si>
+    <t>gift_ids|物品的id</t>
   </si>
   <si>
     <t>10544,10545,10546,10547,10548,10549,10550</t>
@@ -44,8 +54,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,86 +63,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,25 +74,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,35 +149,73 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -216,61 +226,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,121 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,21 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,52 +429,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +456,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,10 +525,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,133 +537,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,55 +993,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="77.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1620691200</v>
+      </c>
+      <c r="D2">
+        <v>1621267199</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="77.375" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1000613</v>
       </c>
-      <c r="D2">
-        <v>1620691200</v>
-      </c>
-      <c r="E2">
-        <v>1621267199</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.18/act_ty_ldfd_config.xlsx
+++ b/config_5.18/act_ty_ldfd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
@@ -52,17 +52,146 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,145 +204,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,91 +219,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,91 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +410,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,8 +464,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,15 +502,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -472,198 +510,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,8 +988,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1029,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1620691200</v>
+        <v>1621296000</v>
       </c>
       <c r="D2">
-        <v>1621267199</v>
+        <v>1621871999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1048,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/config_5.18/act_ty_ldfd_config.xlsx
+++ b/config_5.18/act_ty_ldfd_config.xlsx
@@ -32,7 +32,7 @@
     <t>by_gift_id|礼包gifts的哪个</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1,</t>
   </si>
   <si>
     <t>gitf_key| vip等玩家权限区别</t>
@@ -52,9 +52,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +67,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -75,6 +96,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -82,14 +111,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -98,35 +127,62 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,70 +197,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,11 +428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,33 +460,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +486,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/config_5.18/act_ty_ldfd_config.xlsx
+++ b/config_5.18/act_ty_ldfd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
@@ -15,27 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>line</t>
   </si>
   <si>
-    <t>condiy_key|平台权限</t>
+    <t>key|</t>
+  </si>
+  <si>
+    <t>value|值</t>
   </si>
   <si>
     <t>beginTime</t>
   </si>
   <si>
+    <t>1621296000</t>
+  </si>
+  <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>by_gift_id|礼包gifts的哪个</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>gitf_key| vip等玩家权限区别</t>
+    <t>1621871999</t>
+  </si>
+  <si>
+    <t>show_condiy_key</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>condiy_key|权限</t>
   </si>
   <si>
     <t>task_id|任务id</t>
@@ -52,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,51 +76,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +128,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -141,6 +151,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,24 +173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,31 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,25 +228,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,67 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,19 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +437,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,11 +483,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,33 +519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,21 +995,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="77.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,31 +1019,54 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1621296000</v>
-      </c>
-      <c r="D2">
-        <v>1621871999</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3">
-        <v>5</v>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1046,42 +1079,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2">
         <v>1000613</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
